--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl3</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl3</t>
-  </si>
-  <si>
-    <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>1.360798</v>
       </c>
       <c r="I2">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J2">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>21.52970316843867</v>
+        <v>19.48696529150333</v>
       </c>
       <c r="R2">
-        <v>129.178219010632</v>
+        <v>116.92179174902</v>
       </c>
       <c r="S2">
-        <v>0.02794721655762748</v>
+        <v>0.02648447322248275</v>
       </c>
       <c r="T2">
-        <v>0.02236052296032573</v>
+        <v>0.02176984451610776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>1.360798</v>
       </c>
       <c r="I3">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J3">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
         <v>31.74166237405822</v>
@@ -641,10 +641,10 @@
         <v>285.674961366524</v>
       </c>
       <c r="S3">
-        <v>0.04120312785209816</v>
+        <v>0.04313966770133143</v>
       </c>
       <c r="T3">
-        <v>0.04944983435868995</v>
+        <v>0.05319025134719119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>1.360798</v>
       </c>
       <c r="I4">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J4">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>15.00989209237355</v>
+        <v>17.38769139846044</v>
       </c>
       <c r="R4">
-        <v>135.089028831362</v>
+        <v>156.489222586144</v>
       </c>
       <c r="S4">
-        <v>0.01948399852660881</v>
+        <v>0.0236313782240946</v>
       </c>
       <c r="T4">
-        <v>0.02338367376487176</v>
+        <v>0.02913696406106852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>1.360798</v>
       </c>
       <c r="I5">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J5">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>5.046080979244334</v>
+        <v>7.445987053640334</v>
       </c>
       <c r="R5">
-        <v>30.276485875466</v>
+        <v>44.675922321842</v>
       </c>
       <c r="S5">
-        <v>0.006550202610363876</v>
+        <v>0.01011974115964966</v>
       </c>
       <c r="T5">
-        <v>0.005240806559816519</v>
+        <v>0.008318277269030649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>1.360798</v>
       </c>
       <c r="I6">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J6">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>11.63481488641178</v>
+        <v>11.83418192379689</v>
       </c>
       <c r="R6">
-        <v>104.713333977706</v>
+        <v>106.507637314172</v>
       </c>
       <c r="S6">
-        <v>0.01510288779620173</v>
+        <v>0.01608367796536517</v>
       </c>
       <c r="T6">
-        <v>0.01812569430507506</v>
+        <v>0.01983081741583862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.360798</v>
       </c>
       <c r="I7">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J7">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>11.04625795782911</v>
+        <v>13.10416676686734</v>
       </c>
       <c r="R7">
-        <v>99.41632162046199</v>
+        <v>117.937500901806</v>
       </c>
       <c r="S7">
-        <v>0.01433889547308858</v>
+        <v>0.01780969733606337</v>
       </c>
       <c r="T7">
-        <v>0.01720879076404129</v>
+        <v>0.02195896093315005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,14 +900,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H8">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I8">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J8">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>59.65348741392334</v>
+        <v>21.01520787338834</v>
       </c>
       <c r="R8">
-        <v>357.92092448354</v>
+        <v>126.09124724033</v>
       </c>
       <c r="S8">
-        <v>0.07743483122510333</v>
+        <v>0.02856148722296639</v>
       </c>
       <c r="T8">
-        <v>0.06195548375873255</v>
+        <v>0.0234771192452847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H9">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I9">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J9">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
-        <v>87.94830296144777</v>
+        <v>34.23096531754955</v>
       </c>
       <c r="R9">
-        <v>791.53472665303</v>
+        <v>308.078687857946</v>
       </c>
       <c r="S9">
-        <v>0.1141636858395042</v>
+        <v>0.04652284595219482</v>
       </c>
       <c r="T9">
-        <v>0.1370132717789173</v>
+        <v>0.0573616349276498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H10">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I10">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J10">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>41.58870199052944</v>
+        <v>18.75130086757511</v>
       </c>
       <c r="R10">
-        <v>374.298317914765</v>
+        <v>168.761707808176</v>
       </c>
       <c r="S10">
-        <v>0.05398534535226705</v>
+        <v>0.02548464156861536</v>
       </c>
       <c r="T10">
-        <v>0.06479038181394614</v>
+        <v>0.03142199656966508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H11">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I11">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J11">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>13.98144348902417</v>
+        <v>8.029929925673835</v>
       </c>
       <c r="R11">
-        <v>83.88866093414501</v>
+        <v>48.17957955404301</v>
       </c>
       <c r="S11">
-        <v>0.01814899285508012</v>
+        <v>0.01091337008680612</v>
       </c>
       <c r="T11">
-        <v>0.01452097995540984</v>
+        <v>0.008970628486385235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H12">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I12">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J12">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>32.23719704632722</v>
+        <v>12.76226387330422</v>
       </c>
       <c r="R12">
-        <v>290.1347734169451</v>
+        <v>114.860374859738</v>
       </c>
       <c r="S12">
-        <v>0.04184637010626989</v>
+        <v>0.01734502169807628</v>
       </c>
       <c r="T12">
-        <v>0.05022181999617555</v>
+        <v>0.02138602620053766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H13">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I13">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J13">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>30.60645123172389</v>
+        <v>14.13184580019434</v>
       </c>
       <c r="R13">
-        <v>275.458061085515</v>
+        <v>127.186612201749</v>
       </c>
       <c r="S13">
-        <v>0.03972953616412923</v>
+        <v>0.01920640212987358</v>
       </c>
       <c r="T13">
-        <v>0.04768130685407977</v>
+        <v>0.02368106689731581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H14">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I14">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J14">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>42.535323102294</v>
+        <v>46.7755087933925</v>
       </c>
       <c r="R14">
-        <v>170.141292409176</v>
+        <v>187.10203517357</v>
       </c>
       <c r="S14">
-        <v>0.05521413262357919</v>
+        <v>0.06357196677754436</v>
       </c>
       <c r="T14">
-        <v>0.02945115906189842</v>
+        <v>0.03483680974646101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H15">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I15">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J15">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>62.710658587422</v>
+        <v>76.19105311087233</v>
       </c>
       <c r="R15">
-        <v>376.263951524532</v>
+        <v>457.146318665234</v>
       </c>
       <c r="S15">
-        <v>0.08140327538669088</v>
+        <v>0.1035502386196321</v>
       </c>
       <c r="T15">
-        <v>0.06513062954146098</v>
+        <v>0.08511676163683669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H16">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I16">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J16">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>29.654408371761</v>
+        <v>41.73651975765066</v>
       </c>
       <c r="R16">
-        <v>177.926450230566</v>
+        <v>250.419118545904</v>
       </c>
       <c r="S16">
-        <v>0.03849371104515918</v>
+        <v>0.05672354434803054</v>
       </c>
       <c r="T16">
-        <v>0.03079875621525926</v>
+        <v>0.04662591286923878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H17">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I17">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J17">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>9.969328567759501</v>
+        <v>17.87296419391175</v>
       </c>
       <c r="R17">
-        <v>39.877314271038</v>
+        <v>71.49185677564701</v>
       </c>
       <c r="S17">
-        <v>0.01294095799823896</v>
+        <v>0.02429090597325795</v>
       </c>
       <c r="T17">
-        <v>0.006902693102467071</v>
+        <v>0.01331117649577693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H18">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I18">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J18">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>22.986411217893</v>
+        <v>28.40616136780034</v>
       </c>
       <c r="R18">
-        <v>137.918467307358</v>
+        <v>170.436968206802</v>
       </c>
       <c r="S18">
-        <v>0.02983813604689473</v>
+        <v>0.03860643301022647</v>
       </c>
       <c r="T18">
-        <v>0.02387344459846818</v>
+        <v>0.03173391582660194</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H19">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I19">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J19">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>21.823624210311</v>
+        <v>31.4545676386535</v>
       </c>
       <c r="R19">
-        <v>130.941745261866</v>
+        <v>188.727405831921</v>
       </c>
       <c r="S19">
-        <v>0.0283287487572953</v>
+        <v>0.04274948109616222</v>
       </c>
       <c r="T19">
-        <v>0.02266578625884364</v>
+        <v>0.03513943995751097</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H20">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I20">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J20">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>2.364821768246667</v>
+        <v>54.68457478776834</v>
       </c>
       <c r="R20">
-        <v>14.18893060948</v>
+        <v>328.10744872661</v>
       </c>
       <c r="S20">
-        <v>0.00306972119217443</v>
+        <v>0.07432107231601562</v>
       </c>
       <c r="T20">
-        <v>0.002456078982244158</v>
+        <v>0.0610908200815779</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H21">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I21">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J21">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>3.486502974762222</v>
+        <v>89.07386470992022</v>
       </c>
       <c r="R21">
-        <v>31.37852677286</v>
+        <v>801.664782389282</v>
       </c>
       <c r="S21">
-        <v>0.004525749979095436</v>
+        <v>0.1210590951153144</v>
       </c>
       <c r="T21">
-        <v>0.005431567904709874</v>
+        <v>0.1492631733194451</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H22">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I22">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J22">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>1.648685970325556</v>
+        <v>48.79356515713245</v>
       </c>
       <c r="R22">
-        <v>14.83817373293</v>
+        <v>439.142086414192</v>
       </c>
       <c r="S22">
-        <v>0.002140121649041385</v>
+        <v>0.0663146801209214</v>
       </c>
       <c r="T22">
-        <v>0.002568461827277364</v>
+        <v>0.08176452651561635</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H23">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I23">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J23">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>0.5542613407483334</v>
+        <v>20.89502545997184</v>
       </c>
       <c r="R23">
-        <v>3.32556804449</v>
+        <v>125.370152759831</v>
       </c>
       <c r="S23">
-        <v>0.0007194740028799928</v>
+        <v>0.02839814891644564</v>
       </c>
       <c r="T23">
-        <v>0.0005756499910315676</v>
+        <v>0.02334285757783108</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H24">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I24">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J24">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>1.277967619787778</v>
+        <v>33.2092348286829</v>
       </c>
       <c r="R24">
-        <v>11.50170857809</v>
+        <v>298.8831134581461</v>
       </c>
       <c r="S24">
-        <v>0.00165890061485854</v>
+        <v>0.04513422574539525</v>
       </c>
       <c r="T24">
-        <v>0.001990925565572237</v>
+        <v>0.0556494970795602</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H25">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I25">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J25">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>1.213320549381111</v>
+        <v>36.77308276967034</v>
       </c>
       <c r="R25">
-        <v>10.91988494443</v>
+        <v>330.957744927033</v>
       </c>
       <c r="S25">
-        <v>0.001574983727461791</v>
+        <v>0.04997780369353459</v>
       </c>
       <c r="T25">
-        <v>0.001890212915878222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H26">
-        <v>2.949851</v>
-      </c>
-      <c r="I26">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J26">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>47.464142</v>
-      </c>
-      <c r="N26">
-        <v>94.928284</v>
-      </c>
-      <c r="O26">
-        <v>0.2242480928640021</v>
-      </c>
-      <c r="P26">
-        <v>0.1646949584305047</v>
-      </c>
-      <c r="Q26">
-        <v>46.67071558094733</v>
-      </c>
-      <c r="R26">
-        <v>280.024293485684</v>
-      </c>
-      <c r="S26">
-        <v>0.06058219126551771</v>
-      </c>
-      <c r="T26">
-        <v>0.04847171366730389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H27">
-        <v>2.949851</v>
-      </c>
-      <c r="I27">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J27">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>69.97731266666666</v>
-      </c>
-      <c r="N27">
-        <v>209.931938</v>
-      </c>
-      <c r="O27">
-        <v>0.3306133482671609</v>
-      </c>
-      <c r="P27">
-        <v>0.364219496500593</v>
-      </c>
-      <c r="Q27">
-        <v>68.80754858235977</v>
-      </c>
-      <c r="R27">
-        <v>619.267937241238</v>
-      </c>
-      <c r="S27">
-        <v>0.08931750920977219</v>
-      </c>
-      <c r="T27">
-        <v>0.1071941929168149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H28">
-        <v>2.949851</v>
-      </c>
-      <c r="I28">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J28">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>33.09063966666667</v>
-      </c>
-      <c r="N28">
-        <v>99.271919</v>
-      </c>
-      <c r="O28">
-        <v>0.1563393442759357</v>
-      </c>
-      <c r="P28">
-        <v>0.1722309082614559</v>
-      </c>
-      <c r="Q28">
-        <v>32.53748550378544</v>
-      </c>
-      <c r="R28">
-        <v>292.837369534069</v>
-      </c>
-      <c r="S28">
-        <v>0.0422361677028593</v>
-      </c>
-      <c r="T28">
-        <v>0.05068963464010142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H29">
-        <v>2.949851</v>
-      </c>
-      <c r="I29">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J29">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>11.1245335</v>
-      </c>
-      <c r="N29">
-        <v>22.249067</v>
-      </c>
-      <c r="O29">
-        <v>0.05255873837088856</v>
-      </c>
-      <c r="P29">
-        <v>0.03860081537640052</v>
-      </c>
-      <c r="Q29">
-        <v>10.93857208983617</v>
-      </c>
-      <c r="R29">
-        <v>65.63143253901701</v>
-      </c>
-      <c r="S29">
-        <v>0.01419911090432561</v>
-      </c>
-      <c r="T29">
-        <v>0.01136068576767552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H30">
-        <v>2.949851</v>
-      </c>
-      <c r="I30">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J30">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>25.64998233333334</v>
-      </c>
-      <c r="N30">
-        <v>76.94994700000001</v>
-      </c>
-      <c r="O30">
-        <v>0.121185370215801</v>
-      </c>
-      <c r="P30">
-        <v>0.1335036070218497</v>
-      </c>
-      <c r="Q30">
-        <v>25.22120867865522</v>
-      </c>
-      <c r="R30">
-        <v>226.990878107897</v>
-      </c>
-      <c r="S30">
-        <v>0.0327390756515761</v>
-      </c>
-      <c r="T30">
-        <v>0.0392917225565587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H31">
-        <v>2.949851</v>
-      </c>
-      <c r="I31">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J31">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>24.35245633333333</v>
-      </c>
-      <c r="N31">
-        <v>73.05736899999999</v>
-      </c>
-      <c r="O31">
-        <v>0.1150551060062118</v>
-      </c>
-      <c r="P31">
-        <v>0.126750214409196</v>
-      </c>
-      <c r="Q31">
-        <v>23.94537255577989</v>
-      </c>
-      <c r="R31">
-        <v>215.508353002019</v>
-      </c>
-      <c r="S31">
-        <v>0.03108294188423691</v>
-      </c>
-      <c r="T31">
-        <v>0.03730411761635304</v>
+        <v>0.06162152102431796</v>
       </c>
     </row>
   </sheetData>
